--- a/docs/semi-structured/LAM_metadata_20191209_JKU.xlsx
+++ b/docs/semi-structured/LAM_metadata_20191209_JKU.xlsx
@@ -20,10 +20,10 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'CELEX classes'!$A$1:$N$276</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM classes'!$L$1:$L$71</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM properties'!$A$1:$AK$118</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM properties'!$A$1:$AJ$118</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'prefixes (aux)'!$A$1:$B$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'LAM properties'!$A$1:$AJ$108</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM properties'!$A$1:$AJ$118</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM properties'!$A$1:$AK$118</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1456,7 +1456,7 @@
     <t xml:space="preserve">cdm:concept_eurovoc</t>
   </si>
   <si>
-    <t xml:space="preserve"> eurovoc:100141</t>
+    <t xml:space="preserve"> eurovoc:eurovoc</t>
   </si>
   <si>
     <r>
@@ -19879,9 +19879,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>220320</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>669960</xdr:rowOff>
+      <xdr:colOff>219960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>445680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -19891,7 +19891,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7830720" cy="8148960"/>
+          <a:ext cx="7830360" cy="445680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19925,8 +19925,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>637560</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2037600</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>445680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -19936,7 +19936,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10041120" cy="9516600"/>
+          <a:ext cx="10040400" cy="445680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19974,9 +19974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>454680</xdr:colOff>
+      <xdr:colOff>454320</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -19986,7 +19986,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17852760" cy="4612680"/>
+          <a:ext cx="17853120" cy="4612320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20024,13 +20024,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AK118"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
@@ -20042,18 +20042,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="4" min="4" style="1" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="5" min="5" style="2" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="1" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="1" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="7" min="7" style="1" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="8" min="8" style="1" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="9" min="9" style="1" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="10" min="10" style="1" width="22.57"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="11" min="11" style="1" width="23.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="11" min="11" style="1" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="12" min="12" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="13" min="13" style="1" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="13" min="13" style="1" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="14" min="14" style="1" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="15" min="15" style="1" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="16" min="16" style="1" width="32.57"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="17" min="17" style="1" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="17" min="17" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="18" min="18" style="1" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="19" min="19" style="1" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="2" max="20" min="20" style="1" width="13.7"/>
@@ -20191,7 +20191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B2)</f>
         <v>lamd:md_CODE</v>
@@ -20234,7 +20234,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B3)</f>
         <v>lamd:md_LABEL</v>
@@ -20277,7 +20277,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B4)</f>
         <v>lamd:md_KEYWORD</v>
@@ -20323,7 +20323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B5)</f>
         <v>lamd:md_EXAMPLE_EN</v>
@@ -20369,7 +20369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B6)</f>
         <v>lamd:md_EXAMPLE_FR</v>
@@ -20415,7 +20415,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B7)</f>
         <v>lamd:md_COMMENT</v>
@@ -20461,7 +20461,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B8)</f>
         <v>lamd:md_EXAMPLE_CELEX</v>
@@ -20507,7 +20507,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B9)</f>
         <v>lamd:md_CDM_CLASS</v>
@@ -20553,7 +20553,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="186" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="186" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B10)</f>
         <v>lamd:md_AU</v>
@@ -20620,7 +20620,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="90" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B11)</f>
         <v>lamd:md_FM</v>
@@ -20685,7 +20685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B12)</f>
         <v>lamd:md_DT_CORR</v>
@@ -20746,7 +20746,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B13)</f>
         <v>lamd:md_DN_CLASS</v>
@@ -20789,7 +20789,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="210.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="210.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B14)</f>
         <v>lamd:md_DN</v>
@@ -20914,7 +20914,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="360" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="360" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B16)</f>
         <v>lamd:md_CT</v>
@@ -20975,7 +20975,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="409.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B17)</f>
         <v>lamd:md_CC</v>
@@ -21039,7 +21039,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="90" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B18)</f>
         <v>lamd:md_RJ_NEW</v>
@@ -21100,7 +21100,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="167.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="167.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B19)</f>
         <v>lamd:md_DD</v>
@@ -21170,7 +21170,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="156" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="156" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B20)</f>
         <v>lamd:md_IF</v>
@@ -21243,7 +21243,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="156" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="156" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B21)</f>
         <v>lamd:md_EV</v>
@@ -21313,7 +21313,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="148.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B22)</f>
         <v>lamd:md_NF</v>
@@ -21380,7 +21380,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="105" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B23)</f>
         <v>lamd:md_TP</v>
@@ -21449,7 +21449,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B24)</f>
         <v>lamd:md_SG</v>
@@ -21515,7 +21515,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B25)</f>
         <v>lamd:md_VO</v>
@@ -21576,7 +21576,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="90" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B26)</f>
         <v>lamd:md_DB</v>
@@ -21639,7 +21639,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="105" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B27)</f>
         <v>lamd:md_LO</v>
@@ -21699,7 +21699,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="270" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B28)</f>
         <v>lamd:md_DH</v>
@@ -21765,7 +21765,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="23.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B29)</f>
         <v>lamd:md_DL</v>
@@ -21829,7 +21829,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B30)</f>
         <v>lamd:md_RP</v>
@@ -21899,7 +21899,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="409.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B31)</f>
         <v>lamd:md_VV</v>
@@ -21962,7 +21962,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="409.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B32)</f>
         <v>lamd:md_REP</v>
@@ -22028,7 +22028,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="210" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B33)</f>
         <v>lamd:md_RS</v>
@@ -22094,7 +22094,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="135" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B34)</f>
         <v>lamd:md_AS</v>
@@ -22160,7 +22160,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B35)</f>
         <v>lamd:md_AF</v>
@@ -22221,7 +22221,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="409.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B36)</f>
         <v>lamd:md_MI</v>
@@ -22285,7 +22285,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="105" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B37)</f>
         <v>lamd:md_LG</v>
@@ -22348,7 +22348,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B38)</f>
         <v>lamd:md_RI</v>
@@ -22405,7 +22405,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B39)</f>
         <v>lamd:md_DP</v>
@@ -22471,7 +22471,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="375" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="375" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B40)</f>
         <v>lamd:md_AD</v>
@@ -22537,7 +22537,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B41)</f>
         <v>lamd:md_LF</v>
@@ -22597,7 +22597,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="210" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B42)</f>
         <v>lamd:md_REPPORTEUR</v>
@@ -22663,7 +22663,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B43)</f>
         <v>lamd:md_IC</v>
@@ -22726,7 +22726,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="240" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B44)</f>
         <v>lamd:md_CM</v>
@@ -22789,7 +22789,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="135" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B45)</f>
         <v>lamd:md_NS</v>
@@ -22852,7 +22852,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B46)</f>
         <v>lamd:md_TT</v>
@@ -22918,7 +22918,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="228" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="228" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B47)</f>
         <v>lamd:md_LB</v>
@@ -22999,7 +22999,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="135" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B48)</f>
         <v>lamd:md_AMENDMENT</v>
@@ -23092,7 +23092,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="228" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="228" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B49)</f>
         <v>lamd:md_ADDITION</v>
@@ -23188,7 +23188,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="180" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B50)</f>
         <v>lamd:md_REPEAL</v>
@@ -23281,7 +23281,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="195" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B51)</f>
         <v>lamd:md_REPEAL_IMP</v>
@@ -23374,7 +23374,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="180" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B52)</f>
         <v>lamd:md_ADOPTION</v>
@@ -23467,7 +23467,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="216" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B53)</f>
         <v>lamd:md_ADOPTION_PAR</v>
@@ -23560,7 +23560,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="204" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B54)</f>
         <v>lamd:md_APPLICABILITY_EXT</v>
@@ -23653,7 +23653,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="195" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B55)</f>
         <v>lamd:md_COMPLETION</v>
@@ -23749,7 +23749,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="192" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B56)</f>
         <v>lamd:md_VALIDITY_EXT</v>
@@ -23845,7 +23845,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="180" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B57)</f>
         <v>lamd:md_REPLACEMENT</v>
@@ -23941,7 +23941,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="168" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="168" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B58)</f>
         <v>lamd:md_CORRIGENDUM</v>
@@ -24034,7 +24034,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="192" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B59)</f>
         <v>lamd:md_OBSOLETE</v>
@@ -24127,7 +24127,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="252" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="252" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B60)</f>
         <v>lamd:md_DEROGATION</v>
@@ -24223,7 +24223,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B61)</f>
         <v>lamd:md_CONFIRMATION</v>
@@ -24316,7 +24316,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B62)</f>
         <v>lamd:md_QUESTION_SIMILAR</v>
@@ -24409,7 +24409,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="135" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B63)</f>
         <v>lamd:md_INTERPRETATION</v>
@@ -24499,7 +24499,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="90" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B64)</f>
         <v>lamd:md_IMPLEMENTATION</v>
@@ -24592,7 +24592,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B65)</f>
         <v>lamd:md_REESTAB</v>
@@ -24685,7 +24685,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B66)</f>
         <v>lamd:md_SUSPEND</v>
@@ -24775,7 +24775,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B67)</f>
         <v>lamd:md_SUSPEND_PAR</v>
@@ -24868,7 +24868,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="228" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="228" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B68)</f>
         <v>lamd:md_APPLICABILITY_DEF</v>
@@ -24961,7 +24961,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B69)</f>
         <v>lamd:md_INCORPORATION</v>
@@ -25054,7 +25054,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B70)</f>
         <v>lamd:md_REFER_PAR</v>
@@ -25144,7 +25144,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="216" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B71)</f>
         <v>lamd:md_QUESTION_RELATED</v>
@@ -25237,7 +25237,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B72)</f>
         <v>lamd:md_OPINION_EP</v>
@@ -25328,7 +25328,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B73)</f>
         <v>lamd:md_OPINION_COR</v>
@@ -25418,7 +25418,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B74)</f>
         <v>lamd:md_OPINION_EESC</v>
@@ -25508,7 +25508,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B75)</f>
         <v>lamd:md_INFLUENCE</v>
@@ -25598,7 +25598,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="135" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B76)</f>
         <v>lamd:md_AMENDMENT_PRO</v>
@@ -25688,7 +25688,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="288" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="288" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B77)</f>
         <v>lamd:md_CI</v>
@@ -25760,7 +25760,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="409.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B78)</f>
         <v>lamd:md_RELATION</v>
@@ -25832,7 +25832,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="192" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B79)</f>
         <v>lamd:md_ASSOCIATION</v>
@@ -25904,7 +25904,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B80)</f>
         <v>lamd:md_PROC</v>
@@ -25955,7 +25955,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="165" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B81)</f>
         <v>lamd:md_AP</v>
@@ -26015,7 +26015,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="165" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B82)</f>
         <v>lamd:md_DF</v>
@@ -26075,7 +26075,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B83)</f>
         <v>lamd:md_PR</v>
@@ -26135,7 +26135,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B84)</f>
         <v>lamd:md_NA</v>
@@ -26192,7 +26192,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B85)</f>
         <v>lamd:md_ANNULMENT_REQ</v>
@@ -26279,7 +26279,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B86)</f>
         <v>lamd:md_FAILURE_REQ</v>
@@ -26366,7 +26366,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B87)</f>
         <v>lamd:md_INAPPLICAB_REQ</v>
@@ -26453,7 +26453,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B88)</f>
         <v>lamd:md_ANULMENT_PARTIAL_REQ</v>
@@ -26540,7 +26540,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B89)</f>
         <v>lamd:md_REVIEW_REQ</v>
@@ -26627,7 +26627,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B90)</f>
         <v>lamd:md_PRELIMINARY_REQ</v>
@@ -26714,7 +26714,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B91)</f>
         <v>lamd:md_COMMUNIC_REQ</v>
@@ -26801,7 +26801,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B92)</f>
         <v>lamd:md_OPINION_REQ</v>
@@ -26888,7 +26888,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="150" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B93)</f>
         <v>lamd:md_ANN_COD</v>
@@ -26951,7 +26951,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B94)</f>
         <v>lamd:md_ANN_TOD</v>
@@ -27014,7 +27014,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B95)</f>
         <v>lamd:md_ANN_CLB</v>
@@ -27074,7 +27074,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B96)</f>
         <v>lamd:md_ANN_ART</v>
@@ -27128,7 +27128,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B97)</f>
         <v>lamd:md_ANN_PAR</v>
@@ -27182,7 +27182,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B98)</f>
         <v>lamd:md_ANN_SUB</v>
@@ -27236,7 +27236,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B99)</f>
         <v>lamd:md_ANN_TLT</v>
@@ -27293,7 +27293,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B100)</f>
         <v>lamd:md_ANN_RL2</v>
@@ -27350,7 +27350,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B101)</f>
         <v>lamd:md_ANN_MDL</v>
@@ -27410,7 +27410,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B102)</f>
         <v>lamd:md_ANN_MSL</v>
@@ -27470,7 +27470,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B103)</f>
         <v>lamd:md_ANN_SOV</v>
@@ -27521,7 +27521,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B104)</f>
         <v>lamd:md_ANN_EOV</v>
@@ -27572,7 +27572,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B105)</f>
         <v>lamd:md_ANN_LVL</v>
@@ -27629,7 +27629,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B106)</f>
         <v>lamd:md_ANN_FCS</v>
@@ -27686,7 +27686,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B107)</f>
         <v>lamd:md_ANN_FCT</v>
@@ -27728,7 +27728,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="195" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B108)</f>
         <v>lamd:md_DTS</v>
@@ -27767,7 +27767,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B109)</f>
         <v>lamd:md_DTT</v>
@@ -27803,7 +27803,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="165" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B110)</f>
         <v>lamd:md_DTA</v>
@@ -27842,7 +27842,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="135" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B111)</f>
         <v>lamd:md_DTN</v>
@@ -27881,7 +27881,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="90" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B112)</f>
         <v>lamd:md_OJ_ID</v>
@@ -27914,7 +27914,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B113)</f>
         <v>lamd:md_ELI</v>
@@ -27935,7 +27935,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B114)</f>
         <v>lamd:md_ECLI</v>
@@ -27956,7 +27956,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B115)</f>
         <v>lamd:md_PARENT</v>
@@ -27977,7 +27977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B116)</f>
         <v>lamd:md_ORDER</v>
@@ -28001,7 +28001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B117)</f>
         <v>lamd:md_DESCRIPTION</v>
@@ -28022,7 +28022,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="str">
         <f aca="false">CONCATENATE("lamd:md_",B118)</f>
         <v>lamd:md_CLASSIFICATION</v>
@@ -28044,7 +28044,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK118"/>
+  <autoFilter ref="A1:AJ118">
+    <filterColumn colId="5">
+      <customFilters and="true">
+        <customFilter operator="equal" val=" eurovoc:100141"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -28587,7 +28593,7 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="23" width="40.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="23" width="40.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="67.71"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="5" min="5" style="23" width="67.71"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="6" style="23" width="80.14"/>
@@ -36686,7 +36692,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16"/>
@@ -37256,13 +37262,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="40.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="40.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="6" min="6" style="2" width="93.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="2" width="63.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="7" min="7" style="2" width="63.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="8" min="8" style="2" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="9" min="9" style="2" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="10" min="10" style="2" width="22.57"/>

--- a/docs/semi-structured/LAM_metadata_20191209_JKU.xlsx
+++ b/docs/semi-structured/LAM_metadata_20191209_JKU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LAM properties" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,12 +18,14 @@
     <sheet name="LAM properties Mapping (aux)" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'CELEX class classification'!$A$1:$H$25</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'CELEX classes'!$A$1:$N$276</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM class classification'!$A$1:$H$22</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM classes'!$L$1:$L$71</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM properties'!$A$1:$AJ$118</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM properties'!$A$1:$AK$118</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'prefixes (aux)'!$A$1:$B$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'LAM properties'!$A$1:$AJ$108</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM properties'!$A$1:$AK$118</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'LAM properties'!$A$1:$AJ$118</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5783" uniqueCount="2416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5784" uniqueCount="2417">
   <si>
     <t xml:space="preserve">URI</t>
   </si>
@@ -17599,6 +17601,9 @@
   </si>
   <si>
     <t xml:space="preserve">5_XA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celex 5 XA class (to be corrected)</t>
   </si>
   <si>
     <t xml:space="preserve">XA</t>
@@ -19879,9 +19884,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>219960</xdr:colOff>
+      <xdr:colOff>219600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>445680</xdr:rowOff>
+      <xdr:rowOff>445320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -19891,7 +19896,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7830360" cy="445680"/>
+          <a:ext cx="7830000" cy="445320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19924,9 +19929,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>637560</xdr:colOff>
+      <xdr:colOff>637200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>445680</xdr:rowOff>
+      <xdr:rowOff>445320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -19936,7 +19941,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10040400" cy="445680"/>
+          <a:ext cx="10039320" cy="445320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19974,9 +19979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>454320</xdr:colOff>
+      <xdr:colOff>453960</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>173160</xdr:rowOff>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -19986,7 +19991,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17853120" cy="4612320"/>
+          <a:ext cx="17852760" cy="4611960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20022,6 +20027,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="true">
@@ -20029,7 +20042,7 @@
   </sheetPr>
   <dimension ref="A1:AK118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
@@ -28044,10 +28057,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ118">
+  <autoFilter ref="A1:AK118">
     <filterColumn colId="5">
       <customFilters and="true">
-        <customFilter operator="equal" val=" eurovoc:100141"/>
+        <customFilter operator="equal" val="eurovoc:100141"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -36687,7 +36700,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37237,6 +37250,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H22"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -37244,6 +37258,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -37254,10 +37269,10 @@
   </sheetPr>
   <dimension ref="A1:O276"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -43077,11 +43092,14 @@
       <c r="D148" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="E148" s="2" t="s">
+        <v>1848</v>
+      </c>
       <c r="H148" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="M148" s="2" t="s">
         <v>1619</v>
@@ -43100,7 +43118,7 @@
         <v>celexd:c_5_XA_OJC</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="C149" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D149)),CONCATENATE("celexd:c_",D149),""  )</f>
@@ -43110,16 +43128,16 @@
         <v>1847</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="H149" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>1397</v>
@@ -43144,7 +43162,7 @@
         <v>celexd:c_5_XB</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="C150" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D150)),CONCATENATE("celexd:c_",D150),""  )</f>
@@ -43154,13 +43172,13 @@
         <v>5</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="H150" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="M150" s="2" t="s">
         <v>1627</v>
@@ -43179,26 +43197,26 @@
         <v>celexd:c_5_XB_OJC</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C151" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D151)),CONCATENATE("celexd:c_",D151),""  )</f>
         <v>celexd:c_5_XB</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="H151" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>1397</v>
@@ -43223,7 +43241,7 @@
         <v>celexd:c_5_XC</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="C152" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D152)),CONCATENATE("celexd:c_",D152),""  )</f>
@@ -43233,13 +43251,13 @@
         <v>5</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="H152" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="M152" s="2" t="s">
         <v>1711</v>
@@ -43258,26 +43276,26 @@
         <v>celexd:c_5_XC_OJC</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C153" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D153)),CONCATENATE("celexd:c_",D153),""  )</f>
         <v>celexd:c_5_XC</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="H153" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>1397</v>
@@ -43302,20 +43320,20 @@
         <v>celexd:c_5_XC_OJL</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C154" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D154)),CONCATENATE("celexd:c_",D154),""  )</f>
         <v>celexd:c_5_XC</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>1454</v>
@@ -43324,7 +43342,7 @@
         <v>5</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>1397</v>
@@ -43349,7 +43367,7 @@
         <v>celexd:c_5_XE</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="C155" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D155)),CONCATENATE("celexd:c_",D155),""  )</f>
@@ -43359,13 +43377,13 @@
         <v>5</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="H155" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="M155" s="2" t="s">
         <v>1635</v>
@@ -43384,35 +43402,35 @@
         <v>celexd:c_5_XE_OJC</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="C156" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D156)),CONCATENATE("celexd:c_",D156),""  )</f>
         <v>celexd:c_5_XE</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="H156" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>1492</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="M156" s="2" t="s">
         <v>1652</v>
@@ -43431,7 +43449,7 @@
         <v>celexd:c_5_XG</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="C157" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D157)),CONCATENATE("celexd:c_",D157),""  )</f>
@@ -43441,13 +43459,13 @@
         <v>5</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="H157" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="M157" s="2" t="s">
         <v>1652</v>
@@ -43466,26 +43484,26 @@
         <v>celexd:c_5_XG_OJC</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="C158" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D158)),CONCATENATE("celexd:c_",D158),""  )</f>
         <v>celexd:c_5_XG</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="H158" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>1397</v>
@@ -43510,29 +43528,29 @@
         <v>celexd:c_5_XG_OJL</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="C159" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D159)),CONCATENATE("celexd:c_",D159),""  )</f>
         <v>celexd:c_5_XG</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="H159" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>1397</v>
@@ -43557,7 +43575,7 @@
         <v>celexd:c_5_XK</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="C160" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D160)),CONCATENATE("celexd:c_",D160),""  )</f>
@@ -43567,13 +43585,13 @@
         <v>5</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="H160" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="M160" s="2" t="s">
         <v>1659</v>
@@ -43592,26 +43610,26 @@
         <v>celexd:c_5_XK_OJC</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="C161" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D161)),CONCATENATE("celexd:c_",D161),""  )</f>
         <v>celexd:c_5_XK</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="H161" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>1397</v>
@@ -43636,7 +43654,7 @@
         <v>celexd:c_5_XP</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="C162" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D162)),CONCATENATE("celexd:c_",D162),""  )</f>
@@ -43646,13 +43664,13 @@
         <v>5</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="H162" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="M162" s="2" t="s">
         <v>1665</v>
@@ -43671,26 +43689,26 @@
         <v>celexd:c_5_XP_OJC</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="C163" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D163)),CONCATENATE("celexd:c_",D163),""  )</f>
         <v>celexd:c_5_XP</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="H163" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>1397</v>
@@ -43715,7 +43733,7 @@
         <v>celexd:c_5_XR</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="C164" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D164)),CONCATENATE("celexd:c_",D164),""  )</f>
@@ -43725,13 +43743,13 @@
         <v>5</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="H164" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="M164" s="2" t="s">
         <v>1679</v>
@@ -43750,29 +43768,29 @@
         <v>celexd:c_5_XR_OJC</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="C165" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D165)),CONCATENATE("celexd:c_",D165),""  )</f>
         <v>celexd:c_5_XR</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="H165" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>1397</v>
@@ -43797,7 +43815,7 @@
         <v>celexd:c_5_XX</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="C166" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D166)),CONCATENATE("celexd:c_",D166),""  )</f>
@@ -43813,7 +43831,7 @@
         <v>5</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="M166" s="2" t="s">
         <v>1687</v>
@@ -43832,20 +43850,20 @@
         <v>celexd:c_5_XX_OJC</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="C167" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D167)),CONCATENATE("celexd:c_",D167),""  )</f>
         <v>celexd:c_5_XX</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>1614</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>1454</v>
@@ -43854,7 +43872,7 @@
         <v>5</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>1397</v>
@@ -43879,26 +43897,26 @@
         <v>celexd:c_5_XX_OJL</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="C168" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D168)),CONCATENATE("celexd:c_",D168),""  )</f>
         <v>celexd:c_5_XX</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>1581</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="H168" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>1397</v>
@@ -43907,7 +43925,7 @@
         <v>1397</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N168" s="2" t="n">
         <v>6</v>
@@ -43923,7 +43941,7 @@
         <v>celexd:c_6_CA</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="C169" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D169)),CONCATENATE("celexd:c_",D169),""  )</f>
@@ -43933,16 +43951,16 @@
         <v>6</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="H169" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N169" s="2" t="n">
         <v>6</v>
@@ -43958,26 +43976,26 @@
         <v>celexd:c_6_CA_OJC</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="C170" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D170)),CONCATENATE("celexd:c_",D170),""  )</f>
         <v>celexd:c_6_CA</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="H170" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>1690</v>
@@ -43986,7 +44004,7 @@
         <v>1690</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N170" s="2" t="n">
         <v>6</v>
@@ -44002,7 +44020,7 @@
         <v>celexd:c_6_CB</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="C171" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D171)),CONCATENATE("celexd:c_",D171),""  )</f>
@@ -44012,16 +44030,16 @@
         <v>6</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="H171" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N171" s="2" t="n">
         <v>6</v>
@@ -44037,26 +44055,26 @@
         <v>celexd:c_6_CB_OJC</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="C172" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D172)),CONCATENATE("celexd:c_",D172),""  )</f>
         <v>celexd:c_6_CB</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="H172" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>1690</v>
@@ -44065,7 +44083,7 @@
         <v>1690</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N172" s="2" t="n">
         <v>6</v>
@@ -44081,7 +44099,7 @@
         <v>celexd:c_6_CC</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="C173" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D173)),CONCATENATE("celexd:c_",D173),""  )</f>
@@ -44091,7 +44109,7 @@
         <v>6</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="H173" s="2" t="n">
         <v>6</v>
@@ -44100,7 +44118,7 @@
         <v>123</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N173" s="2" t="n">
         <v>6</v>
@@ -44116,20 +44134,20 @@
         <v>celexd:c_6_CC_EUR</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="C174" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D174)),CONCATENATE("celexd:c_",D174),""  )</f>
         <v>celexd:c_6_CC</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="H174" s="2" t="n">
         <v>6</v>
@@ -44144,7 +44162,7 @@
         <v>1690</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N174" s="2" t="n">
         <v>6</v>
@@ -44160,7 +44178,7 @@
         <v>celexd:c_6_CD</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="C175" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D175)),CONCATENATE("celexd:c_",D175),""  )</f>
@@ -44170,16 +44188,16 @@
         <v>6</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="H175" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N175" s="2" t="n">
         <v>6</v>
@@ -44195,26 +44213,26 @@
         <v>celexd:c_6_CD_EUR</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="C176" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D176)),CONCATENATE("celexd:c_",D176),""  )</f>
         <v>celexd:c_6_CD</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="H176" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>1690</v>
@@ -44223,7 +44241,7 @@
         <v>1690</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N176" s="2" t="n">
         <v>6</v>
@@ -44239,7 +44257,7 @@
         <v>celexd:c_6_CG</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C177" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D177)),CONCATENATE("celexd:c_",D177),""  )</f>
@@ -44249,16 +44267,16 @@
         <v>6</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="H177" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N177" s="2" t="n">
         <v>6</v>
@@ -44274,35 +44292,35 @@
         <v>celexd:c_6_CG_OJC</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="C178" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D178)),CONCATENATE("celexd:c_",D178),""  )</f>
         <v>celexd:c_6_CG</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="H178" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N178" s="2" t="n">
         <v>6</v>
@@ -44318,7 +44336,7 @@
         <v>celexd:c_6_CJ</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="C179" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D179)),CONCATENATE("celexd:c_",D179),""  )</f>
@@ -44328,16 +44346,16 @@
         <v>6</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="H179" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="M179" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N179" s="2" t="n">
         <v>6</v>
@@ -44353,26 +44371,26 @@
         <v>celexd:c_6_CJ_EUR</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="C180" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D180)),CONCATENATE("celexd:c_",D180),""  )</f>
         <v>celexd:c_6_CJ</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="H180" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>1690</v>
@@ -44381,7 +44399,7 @@
         <v>1690</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N180" s="2" t="n">
         <v>6</v>
@@ -44397,7 +44415,7 @@
         <v>celexd:c_6_CN</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="C181" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D181)),CONCATENATE("celexd:c_",D181),""  )</f>
@@ -44407,16 +44425,16 @@
         <v>6</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="H181" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N181" s="2" t="n">
         <v>6</v>
@@ -44432,26 +44450,26 @@
         <v>celexd:c_6_CN_OJC</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="C182" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D182)),CONCATENATE("celexd:c_",D182),""  )</f>
         <v>celexd:c_6_CN</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="H182" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>1690</v>
@@ -44460,7 +44478,7 @@
         <v>1690</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N182" s="2" t="n">
         <v>6</v>
@@ -44476,7 +44494,7 @@
         <v>celexd:c_6_CO</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="C183" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D183)),CONCATENATE("celexd:c_",D183),""  )</f>
@@ -44492,10 +44510,10 @@
         <v>6</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N183" s="2" t="n">
         <v>6</v>
@@ -44511,26 +44529,26 @@
         <v>celexd:c_6_CO_EUR</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="C184" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D184)),CONCATENATE("celexd:c_",D184),""  )</f>
         <v>celexd:c_6_CO</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="H184" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>1690</v>
@@ -44539,7 +44557,7 @@
         <v>1690</v>
       </c>
       <c r="M184" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N184" s="2" t="n">
         <v>6</v>
@@ -44555,7 +44573,7 @@
         <v>celexd:c_6_CP</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="C185" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D185)),CONCATENATE("celexd:c_",D185),""  )</f>
@@ -44565,16 +44583,16 @@
         <v>6</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="H185" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N185" s="2" t="n">
         <v>6</v>
@@ -44590,26 +44608,26 @@
         <v>celexd:c_6_CP_EUR</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="C186" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D186)),CONCATENATE("celexd:c_",D186),""  )</f>
         <v>celexd:c_6_CP</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="H186" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>1690</v>
@@ -44618,7 +44636,7 @@
         <v>1690</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N186" s="2" t="n">
         <v>6</v>
@@ -44634,7 +44652,7 @@
         <v>celexd:c_6_CS</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="C187" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D187)),CONCATENATE("celexd:c_",D187),""  )</f>
@@ -44644,16 +44662,16 @@
         <v>6</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="H187" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N187" s="2" t="n">
         <v>6</v>
@@ -44669,26 +44687,26 @@
         <v>celexd:c_6_CS_EUR</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="C188" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D188)),CONCATENATE("celexd:c_",D188),""  )</f>
         <v>celexd:c_6_CS</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="H188" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>1690</v>
@@ -44697,7 +44715,7 @@
         <v>1690</v>
       </c>
       <c r="M188" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N188" s="2" t="n">
         <v>6</v>
@@ -44713,7 +44731,7 @@
         <v>celexd:c_6_CT</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="C189" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D189)),CONCATENATE("celexd:c_",D189),""  )</f>
@@ -44723,7 +44741,7 @@
         <v>6</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="H189" s="2" t="n">
         <v>6</v>
@@ -44732,7 +44750,7 @@
         <v>116</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N189" s="2" t="n">
         <v>6</v>
@@ -44748,20 +44766,20 @@
         <v>celexd:c_6_CT_EUR</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="C190" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D190)),CONCATENATE("celexd:c_",D190),""  )</f>
         <v>celexd:c_6_CT</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="H190" s="2" t="n">
         <v>6</v>
@@ -44776,7 +44794,7 @@
         <v>1690</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N190" s="2" t="n">
         <v>6</v>
@@ -44792,7 +44810,7 @@
         <v>celexd:c_6_CU</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="C191" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D191)),CONCATENATE("celexd:c_",D191),""  )</f>
@@ -44802,16 +44820,16 @@
         <v>6</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="H191" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N191" s="2" t="n">
         <v>6</v>
@@ -44827,35 +44845,35 @@
         <v>celexd:c_6_CU_OJC</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="C192" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D192)),CONCATENATE("celexd:c_",D192),""  )</f>
         <v>celexd:c_6_CU</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="H192" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="M192" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N192" s="2" t="n">
         <v>6</v>
@@ -44871,7 +44889,7 @@
         <v>celexd:c_6_CV</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="C193" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D193)),CONCATENATE("celexd:c_",D193),""  )</f>
@@ -44881,16 +44899,16 @@
         <v>6</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="H193" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N193" s="2" t="n">
         <v>6</v>
@@ -44906,35 +44924,35 @@
         <v>celexd:c_6_CV_EUR</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="C194" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D194)),CONCATENATE("celexd:c_",D194),""  )</f>
         <v>celexd:c_6_CV</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="H194" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N194" s="2" t="n">
         <v>6</v>
@@ -44950,7 +44968,7 @@
         <v>celexd:c_6_CX</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C195" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D195)),CONCATENATE("celexd:c_",D195),""  )</f>
@@ -44960,16 +44978,16 @@
         <v>6</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="H195" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="N195" s="2" t="n">
         <v>6</v>
@@ -44985,35 +45003,35 @@
         <v>celexd:c_6_CX_EUR</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="C196" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D196)),CONCATENATE("celexd:c_",D196),""  )</f>
         <v>celexd:c_6_CX</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="H196" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="N196" s="2" t="n">
         <v>6</v>
@@ -45029,7 +45047,7 @@
         <v>celexd:c_6_FA</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="C197" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D197)),CONCATENATE("celexd:c_",D197),""  )</f>
@@ -45039,16 +45057,16 @@
         <v>6</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="H197" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="N197" s="2" t="n">
         <v>6</v>
@@ -45064,26 +45082,26 @@
         <v>celexd:c_6_FA_OJC</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="C198" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D198)),CONCATENATE("celexd:c_",D198),""  )</f>
         <v>celexd:c_6_FA</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="H198" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>1690</v>
@@ -45092,7 +45110,7 @@
         <v>1690</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="N198" s="2" t="n">
         <v>6</v>
@@ -45108,7 +45126,7 @@
         <v>celexd:c_6_FB</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C199" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D199)),CONCATENATE("celexd:c_",D199),""  )</f>
@@ -45118,16 +45136,16 @@
         <v>6</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="H199" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="N199" s="2" t="n">
         <v>6</v>
@@ -45143,26 +45161,26 @@
         <v>celexd:c_6_FB_OJC</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C200" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D200)),CONCATENATE("celexd:c_",D200),""  )</f>
         <v>celexd:c_6_FB</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="H200" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="J200" s="2" t="s">
         <v>1690</v>
@@ -45171,7 +45189,7 @@
         <v>1690</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="N200" s="2" t="n">
         <v>6</v>
@@ -45187,7 +45205,7 @@
         <v>celexd:c_6_FJ</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C201" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D201)),CONCATENATE("celexd:c_",D201),""  )</f>
@@ -45197,16 +45215,16 @@
         <v>6</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="H201" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="N201" s="2" t="n">
         <v>6</v>
@@ -45222,26 +45240,26 @@
         <v>celexd:c_6_FJ_EUR</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C202" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D202)),CONCATENATE("celexd:c_",D202),""  )</f>
         <v>celexd:c_6_FJ</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="H202" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="J202" s="2" t="s">
         <v>1690</v>
@@ -45250,7 +45268,7 @@
         <v>1690</v>
       </c>
       <c r="M202" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="N202" s="2" t="n">
         <v>6</v>
@@ -45266,7 +45284,7 @@
         <v>celexd:c_6_FN</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C203" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D203)),CONCATENATE("celexd:c_",D203),""  )</f>
@@ -45276,16 +45294,16 @@
         <v>6</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="H203" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="M203" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="N203" s="2" t="n">
         <v>6</v>
@@ -45301,26 +45319,26 @@
         <v>celexd:c_6_FN_OJC</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C204" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D204)),CONCATENATE("celexd:c_",D204),""  )</f>
         <v>celexd:c_6_FN</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="H204" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="J204" s="2" t="s">
         <v>1690</v>
@@ -45329,7 +45347,7 @@
         <v>1690</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="N204" s="2" t="n">
         <v>6</v>
@@ -45345,7 +45363,7 @@
         <v>celexd:c_6_FO</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C205" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D205)),CONCATENATE("celexd:c_",D205),""  )</f>
@@ -45361,10 +45379,10 @@
         <v>6</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="N205" s="2" t="n">
         <v>6</v>
@@ -45380,26 +45398,26 @@
         <v>celexd:c_6_FO_EUR</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C206" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D206)),CONCATENATE("celexd:c_",D206),""  )</f>
         <v>celexd:c_6_FO</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="H206" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>1690</v>
@@ -45408,7 +45426,7 @@
         <v>1690</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="N206" s="2" t="n">
         <v>6</v>
@@ -45424,7 +45442,7 @@
         <v>celexd:c_6_FT</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C207" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D207)),CONCATENATE("celexd:c_",D207),""  )</f>
@@ -45434,16 +45452,16 @@
         <v>6</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="H207" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="N207" s="2" t="n">
         <v>6</v>
@@ -45459,23 +45477,23 @@
         <v>celexd:c_6_FT_EUR</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C208" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D208)),CONCATENATE("celexd:c_",D208),""  )</f>
         <v>celexd:c_6_FT</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="H208" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="J208" s="2" t="s">
         <v>1690</v>
@@ -45484,7 +45502,7 @@
         <v>1690</v>
       </c>
       <c r="M208" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N208" s="2" t="n">
         <v>6</v>
@@ -45500,7 +45518,7 @@
         <v>celexd:c_6_TA</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C209" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D209)),CONCATENATE("celexd:c_",D209),""  )</f>
@@ -45510,7 +45528,7 @@
         <v>6</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="H209" s="2" t="n">
         <v>6</v>
@@ -45519,7 +45537,7 @@
         <v>1843</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N209" s="2" t="n">
         <v>6</v>
@@ -45535,20 +45553,20 @@
         <v>celexd:c_6_TA_OJC</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C210" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D210)),CONCATENATE("celexd:c_",D210),""  )</f>
         <v>celexd:c_6_TA</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H210" s="2" t="n">
         <v>6</v>
@@ -45563,7 +45581,7 @@
         <v>1690</v>
       </c>
       <c r="M210" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N210" s="2" t="n">
         <v>6</v>
@@ -45579,7 +45597,7 @@
         <v>celexd:c_6_TB</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C211" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D211)),CONCATENATE("celexd:c_",D211),""  )</f>
@@ -45589,16 +45607,16 @@
         <v>6</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="H211" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="M211" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N211" s="2" t="n">
         <v>6</v>
@@ -45614,26 +45632,26 @@
         <v>celexd:c_6_TB_OJC</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C212" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D212)),CONCATENATE("celexd:c_",D212),""  )</f>
         <v>celexd:c_6_TB</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H212" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J212" s="2" t="s">
         <v>1690</v>
@@ -45642,7 +45660,7 @@
         <v>1690</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N212" s="2" t="n">
         <v>6</v>
@@ -45658,7 +45676,7 @@
         <v>celexd:c_6_TC</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C213" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D213)),CONCATENATE("celexd:c_",D213),""  )</f>
@@ -45668,16 +45686,16 @@
         <v>6</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="H213" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="M213" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N213" s="2" t="n">
         <v>6</v>
@@ -45693,26 +45711,26 @@
         <v>celexd:c_6_TC_EUR</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="C214" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D214)),CONCATENATE("celexd:c_",D214),""  )</f>
         <v>celexd:c_6_TC</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="H214" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="J214" s="2" t="s">
         <v>1690</v>
@@ -45721,7 +45739,7 @@
         <v>1690</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N214" s="2" t="n">
         <v>6</v>
@@ -45737,7 +45755,7 @@
         <v>celexd:c_6_TJ</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="C215" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D215)),CONCATENATE("celexd:c_",D215),""  )</f>
@@ -45747,16 +45765,16 @@
         <v>6</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="H215" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="M215" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N215" s="2" t="n">
         <v>6</v>
@@ -45772,26 +45790,26 @@
         <v>celexd:c_6_TJ_EUR</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="C216" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D216)),CONCATENATE("celexd:c_",D216),""  )</f>
         <v>celexd:c_6_TJ</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="H216" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="J216" s="2" t="s">
         <v>1690</v>
@@ -45800,7 +45818,7 @@
         <v>1690</v>
       </c>
       <c r="M216" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N216" s="2" t="n">
         <v>6</v>
@@ -45816,7 +45834,7 @@
         <v>celexd:c_6_TN</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="C217" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D217)),CONCATENATE("celexd:c_",D217),""  )</f>
@@ -45826,16 +45844,16 @@
         <v>6</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="H217" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="M217" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N217" s="2" t="n">
         <v>6</v>
@@ -45851,26 +45869,26 @@
         <v>celexd:c_6_TN_OJC</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="C218" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D218)),CONCATENATE("celexd:c_",D218),""  )</f>
         <v>celexd:c_6_TN</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="H218" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="J218" s="2" t="s">
         <v>1690</v>
@@ -45879,7 +45897,7 @@
         <v>1690</v>
       </c>
       <c r="M218" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N218" s="2" t="n">
         <v>6</v>
@@ -45895,7 +45913,7 @@
         <v>celexd:c_6_TO</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C219" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D219)),CONCATENATE("celexd:c_",D219),""  )</f>
@@ -45911,10 +45929,10 @@
         <v>6</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="M219" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N219" s="2" t="n">
         <v>6</v>
@@ -45930,26 +45948,26 @@
         <v>celexd:c_6_TO_EUR</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="C220" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D220)),CONCATENATE("celexd:c_",D220),""  )</f>
         <v>celexd:c_6_TO</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="H220" s="2" t="n">
         <v>6</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="J220" s="2" t="s">
         <v>1690</v>
@@ -45958,7 +45976,7 @@
         <v>1690</v>
       </c>
       <c r="M220" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N220" s="2" t="n">
         <v>6</v>
@@ -45974,7 +45992,7 @@
         <v>celexd:c_6_TT</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="C221" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D221)),CONCATENATE("celexd:c_",D221),""  )</f>
@@ -45984,7 +46002,7 @@
         <v>6</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="H221" s="2" t="n">
         <v>6</v>
@@ -45993,7 +46011,7 @@
         <v>357</v>
       </c>
       <c r="M221" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N221" s="2" t="n">
         <v>6</v>
@@ -46009,20 +46027,20 @@
         <v>celexd:c_6_TT_EUR</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="C222" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D222)),CONCATENATE("celexd:c_",D222),""  )</f>
         <v>celexd:c_6_TT</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="H222" s="2" t="n">
         <v>6</v>
@@ -46037,7 +46055,7 @@
         <v>1690</v>
       </c>
       <c r="M222" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N222" s="2" t="n">
         <v>6</v>
@@ -46053,7 +46071,7 @@
         <v>celexd:c_8_AT</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="C223" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D223)),CONCATENATE("celexd:c_",D223),""  )</f>
@@ -46063,10 +46081,10 @@
         <v>8</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="H223" s="2" t="n">
         <v>8</v>
@@ -46088,7 +46106,7 @@
         <v>celexd:c_8_BE</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="C224" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D224)),CONCATENATE("celexd:c_",D224),""  )</f>
@@ -46098,10 +46116,10 @@
         <v>8</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="H224" s="2" t="n">
         <v>8</v>
@@ -46120,7 +46138,7 @@
         <v>celexd:c_8_BG</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="C225" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D225)),CONCATENATE("celexd:c_",D225),""  )</f>
@@ -46130,10 +46148,10 @@
         <v>8</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="H225" s="2" t="n">
         <v>8</v>
@@ -46152,7 +46170,7 @@
         <v>celexd:c_8_CY</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="C226" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D226)),CONCATENATE("celexd:c_",D226),""  )</f>
@@ -46162,10 +46180,10 @@
         <v>8</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="H226" s="2" t="n">
         <v>8</v>
@@ -46184,7 +46202,7 @@
         <v>celexd:c_8_CZ</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="C227" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D227)),CONCATENATE("celexd:c_",D227),""  )</f>
@@ -46194,10 +46212,10 @@
         <v>8</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="H227" s="2" t="n">
         <v>8</v>
@@ -46216,7 +46234,7 @@
         <v>celexd:c_8_DE</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="C228" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D228)),CONCATENATE("celexd:c_",D228),""  )</f>
@@ -46226,10 +46244,10 @@
         <v>8</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="H228" s="2" t="n">
         <v>8</v>
@@ -46248,7 +46266,7 @@
         <v>celexd:c_8_DK</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="C229" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D229)),CONCATENATE("celexd:c_",D229),""  )</f>
@@ -46258,10 +46276,10 @@
         <v>8</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="H229" s="2" t="n">
         <v>8</v>
@@ -46280,7 +46298,7 @@
         <v>celexd:c_8_EE</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="C230" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D230)),CONCATENATE("celexd:c_",D230),""  )</f>
@@ -46290,10 +46308,10 @@
         <v>8</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="H230" s="2" t="n">
         <v>8</v>
@@ -46312,7 +46330,7 @@
         <v>celexd:c_8_EL</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="C231" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D231)),CONCATENATE("celexd:c_",D231),""  )</f>
@@ -46322,10 +46340,10 @@
         <v>8</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="H231" s="2" t="n">
         <v>8</v>
@@ -46344,7 +46362,7 @@
         <v>celexd:c_8_ES</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="C232" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D232)),CONCATENATE("celexd:c_",D232),""  )</f>
@@ -46354,10 +46372,10 @@
         <v>8</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="H232" s="2" t="n">
         <v>8</v>
@@ -46376,7 +46394,7 @@
         <v>celexd:c_8_FI</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="C233" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D233)),CONCATENATE("celexd:c_",D233),""  )</f>
@@ -46386,10 +46404,10 @@
         <v>8</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="H233" s="2" t="n">
         <v>8</v>
@@ -46408,7 +46426,7 @@
         <v>celexd:c_8_FR</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="C234" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D234)),CONCATENATE("celexd:c_",D234),""  )</f>
@@ -46418,10 +46436,10 @@
         <v>8</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="H234" s="2" t="n">
         <v>8</v>
@@ -46440,7 +46458,7 @@
         <v>celexd:c_8_HR</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="C235" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D235)),CONCATENATE("celexd:c_",D235),""  )</f>
@@ -46450,10 +46468,10 @@
         <v>8</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="H235" s="2" t="n">
         <v>8</v>
@@ -46472,7 +46490,7 @@
         <v>celexd:c_8_HU</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="C236" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D236)),CONCATENATE("celexd:c_",D236),""  )</f>
@@ -46482,10 +46500,10 @@
         <v>8</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="H236" s="2" t="n">
         <v>8</v>
@@ -46504,7 +46522,7 @@
         <v>celexd:c_8_IE</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C237" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D237)),CONCATENATE("celexd:c_",D237),""  )</f>
@@ -46514,10 +46532,10 @@
         <v>8</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="H237" s="2" t="n">
         <v>8</v>
@@ -46536,7 +46554,7 @@
         <v>celexd:c_8_IT</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="C238" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D238)),CONCATENATE("celexd:c_",D238),""  )</f>
@@ -46546,10 +46564,10 @@
         <v>8</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="H238" s="2" t="n">
         <v>8</v>
@@ -46568,7 +46586,7 @@
         <v>celexd:c_8_LT</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="C239" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D239)),CONCATENATE("celexd:c_",D239),""  )</f>
@@ -46578,10 +46596,10 @@
         <v>8</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="H239" s="2" t="n">
         <v>8</v>
@@ -46600,7 +46618,7 @@
         <v>celexd:c_8_LU</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="C240" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D240)),CONCATENATE("celexd:c_",D240),""  )</f>
@@ -46610,10 +46628,10 @@
         <v>8</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="H240" s="2" t="n">
         <v>8</v>
@@ -46632,7 +46650,7 @@
         <v>celexd:c_8_LV</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="C241" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D241)),CONCATENATE("celexd:c_",D241),""  )</f>
@@ -46642,10 +46660,10 @@
         <v>8</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="H241" s="2" t="n">
         <v>8</v>
@@ -46664,7 +46682,7 @@
         <v>celexd:c_8_MT</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="C242" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D242)),CONCATENATE("celexd:c_",D242),""  )</f>
@@ -46674,10 +46692,10 @@
         <v>8</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="H242" s="2" t="n">
         <v>8</v>
@@ -46696,7 +46714,7 @@
         <v>celexd:c_8_NL</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="C243" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D243)),CONCATENATE("celexd:c_",D243),""  )</f>
@@ -46706,10 +46724,10 @@
         <v>8</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="H243" s="2" t="n">
         <v>8</v>
@@ -46728,7 +46746,7 @@
         <v>celexd:c_8_PL</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="C244" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D244)),CONCATENATE("celexd:c_",D244),""  )</f>
@@ -46738,10 +46756,10 @@
         <v>8</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="H244" s="2" t="n">
         <v>8</v>
@@ -46760,7 +46778,7 @@
         <v>celexd:c_8_PT</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="C245" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D245)),CONCATENATE("celexd:c_",D245),""  )</f>
@@ -46770,10 +46788,10 @@
         <v>8</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="H245" s="2" t="n">
         <v>8</v>
@@ -46792,7 +46810,7 @@
         <v>celexd:c_8_RO</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="C246" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D246)),CONCATENATE("celexd:c_",D246),""  )</f>
@@ -46802,10 +46820,10 @@
         <v>8</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="H246" s="2" t="n">
         <v>8</v>
@@ -46824,7 +46842,7 @@
         <v>celexd:c_8_SE</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="C247" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D247)),CONCATENATE("celexd:c_",D247),""  )</f>
@@ -46834,10 +46852,10 @@
         <v>8</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="H247" s="2" t="n">
         <v>8</v>
@@ -46856,7 +46874,7 @@
         <v>celexd:c_8_SI</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="C248" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D248)),CONCATENATE("celexd:c_",D248),""  )</f>
@@ -46866,10 +46884,10 @@
         <v>8</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="H248" s="2" t="n">
         <v>8</v>
@@ -46888,7 +46906,7 @@
         <v>celexd:c_8_SK</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="C249" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D249)),CONCATENATE("celexd:c_",D249),""  )</f>
@@ -46898,10 +46916,10 @@
         <v>8</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="H249" s="2" t="n">
         <v>8</v>
@@ -46920,7 +46938,7 @@
         <v>celexd:c_8_UK</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="C250" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D250)),CONCATENATE("celexd:c_",D250),""  )</f>
@@ -46930,10 +46948,10 @@
         <v>8</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="H250" s="2" t="n">
         <v>8</v>
@@ -46952,7 +46970,7 @@
         <v>celexd:c_8_XX</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="C251" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D251)),CONCATENATE("celexd:c_",D251),""  )</f>
@@ -46962,10 +46980,10 @@
         <v>8</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="H251" s="2" t="n">
         <v>8</v>
@@ -46984,7 +47002,7 @@
         <v>celexd:c_9_E</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="C252" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D252)),CONCATENATE("celexd:c_",D252),""  )</f>
@@ -46994,10 +47012,10 @@
         <v>9</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="F252" s="28" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="H252" s="2" t="n">
         <v>9</v>
@@ -47019,7 +47037,7 @@
         <v>celexd:c_9_H</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="C253" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D253)),CONCATENATE("celexd:c_",D253),""  )</f>
@@ -47029,10 +47047,10 @@
         <v>9</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="H253" s="2" t="n">
         <v>9</v>
@@ -47054,7 +47072,7 @@
         <v>celexd:c_9_O</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="C254" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D254)),CONCATENATE("celexd:c_",D254),""  )</f>
@@ -47064,10 +47082,10 @@
         <v>9</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="H254" s="2" t="n">
         <v>9</v>
@@ -47096,7 +47114,7 @@
         <v/>
       </c>
       <c r="E255" s="2" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="H255" s="2" t="s">
         <v>1466</v>
@@ -47122,7 +47140,7 @@
         <v/>
       </c>
       <c r="E256" s="2" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="H256" s="2" t="s">
         <v>1488</v>
@@ -47141,7 +47159,7 @@
         <v>celexd:c_E_A</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="C257" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D257)),CONCATENATE("celexd:c_",D257),""  )</f>
@@ -47151,7 +47169,7 @@
         <v>1488</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>1488</v>
@@ -47173,20 +47191,20 @@
         <v>celexd:c_E_A_OJC</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="C258" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D258)),CONCATENATE("celexd:c_",D258),""  )</f>
         <v>celexd:c_E_A</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>1488</v>
@@ -47214,23 +47232,23 @@
         <v>celexd:c_E_A_OJL</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="C259" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D259)),CONCATENATE("celexd:c_",D259),""  )</f>
         <v>celexd:c_E_A</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>1488</v>
@@ -47258,7 +47276,7 @@
         <v>celexd:c_E_C</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="C260" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D260)),CONCATENATE("celexd:c_",D260),""  )</f>
@@ -47268,7 +47286,7 @@
         <v>1488</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="H260" s="2" t="s">
         <v>1488</v>
@@ -47290,20 +47308,20 @@
         <v>celexd:c_E_C_OJC</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="C261" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D261)),CONCATENATE("celexd:c_",D261),""  )</f>
         <v>celexd:c_E_C</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="H261" s="2" t="s">
         <v>1488</v>
@@ -47331,20 +47349,20 @@
         <v>celexd:c_E_C_OJL</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="C262" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D262)),CONCATENATE("celexd:c_",D262),""  )</f>
         <v>celexd:c_E_C</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>1488</v>
@@ -47372,7 +47390,7 @@
         <v>celexd:c_E_G</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="C263" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D263)),CONCATENATE("celexd:c_",D263),""  )</f>
@@ -47382,7 +47400,7 @@
         <v>1488</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="H263" s="2" t="s">
         <v>1488</v>
@@ -47404,20 +47422,20 @@
         <v>celexd:c_E_G_OJC</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="C264" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D264)),CONCATENATE("celexd:c_",D264),""  )</f>
         <v>celexd:c_E_G</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="H264" s="2" t="s">
         <v>1488</v>
@@ -47445,20 +47463,20 @@
         <v>celexd:c_E_G_OJL</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="C265" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D265)),CONCATENATE("celexd:c_",D265),""  )</f>
         <v>celexd:c_E_G</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="H265" s="2" t="s">
         <v>1488</v>
@@ -47486,7 +47504,7 @@
         <v>celexd:c_E_J</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="C266" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D266)),CONCATENATE("celexd:c_",D266),""  )</f>
@@ -47496,7 +47514,7 @@
         <v>1488</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="H266" s="2" t="s">
         <v>1488</v>
@@ -47518,20 +47536,20 @@
         <v>celexd:c_E_J_OJC</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="C267" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D267)),CONCATENATE("celexd:c_",D267),""  )</f>
         <v>celexd:c_E_J</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="H267" s="2" t="s">
         <v>1488</v>
@@ -47559,23 +47577,23 @@
         <v>celexd:c_E_J_OJL</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="C268" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D268)),CONCATENATE("celexd:c_",D268),""  )</f>
         <v>celexd:c_E_J</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="H268" s="2" t="s">
         <v>1488</v>
@@ -47603,7 +47621,7 @@
         <v>celexd:c_E_O</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="C269" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D269)),CONCATENATE("celexd:c_",D269),""  )</f>
@@ -47635,20 +47653,20 @@
         <v>celexd:c_E_O_OJC</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="C270" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D270)),CONCATENATE("celexd:c_",D270),""  )</f>
         <v>celexd:c_E_O</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>1441</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="H270" s="2" t="s">
         <v>1488</v>
@@ -47670,20 +47688,20 @@
         <v>celexd:c_E_O_OJL</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="C271" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D271)),CONCATENATE("celexd:c_",D271),""  )</f>
         <v>celexd:c_E_O</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>1444</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="H271" s="2" t="s">
         <v>1488</v>
@@ -47705,7 +47723,7 @@
         <v>celexd:c_E_P</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="C272" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D272)),CONCATENATE("celexd:c_",D272),""  )</f>
@@ -47715,7 +47733,7 @@
         <v>1488</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="H272" s="2" t="s">
         <v>1488</v>
@@ -47737,20 +47755,20 @@
         <v>celexd:c_E_P_OJC</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="C273" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D273)),CONCATENATE("celexd:c_",D273),""  )</f>
         <v>celexd:c_E_P</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="H273" s="2" t="s">
         <v>1488</v>
@@ -47778,7 +47796,7 @@
         <v>celexd:c_E_X</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="C274" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D274)),CONCATENATE("celexd:c_",D274),""  )</f>
@@ -47788,7 +47806,7 @@
         <v>1488</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="H274" s="2" t="s">
         <v>1488</v>
@@ -47810,20 +47828,20 @@
         <v>celexd:c_E_X_OJC</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="C275" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D275)),CONCATENATE("celexd:c_",D275),""  )</f>
         <v>celexd:c_E_X</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="H275" s="2" t="s">
         <v>1488</v>
@@ -47851,23 +47869,23 @@
         <v>celexd:c_E_X_OJL</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="C276" s="2" t="str">
         <f aca="false">IF(NOT(ISBLANK(D276)),CONCATENATE("celexd:c_",D276),""  )</f>
         <v>celexd:c_E_X</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="H276" s="2" t="s">
         <v>1488</v>
@@ -47966,7 +47984,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47985,7 +48003,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48004,7 +48022,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48023,7 +48041,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48042,7 +48060,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48064,7 +48082,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48086,7 +48104,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48108,7 +48126,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48130,7 +48148,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48218,7 +48236,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48259,7 +48277,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48268,7 +48286,7 @@
         <v>celexd:clc_6_CJ</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="C17" s="5" t="str">
         <f aca="false">IF(NOT(ISBLANK(D17)),CONCATENATE("celexd:clc_",D17),""  )</f>
@@ -48281,7 +48299,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48290,7 +48308,7 @@
         <v>celexd:clc_6_GCEU</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C18" s="5" t="str">
         <f aca="false">IF(NOT(ISBLANK(D18)),CONCATENATE("celexd:clc_",D18),""  )</f>
@@ -48303,7 +48321,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48312,7 +48330,7 @@
         <v>celexd:clc_6_CST</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C19" s="5" t="str">
         <f aca="false">IF(NOT(ISBLANK(D19)),CONCATENATE("celexd:clc_",D19),""  )</f>
@@ -48325,7 +48343,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48344,7 +48362,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48363,7 +48381,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48382,7 +48400,7 @@
         <v>9</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48401,7 +48419,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48420,7 +48438,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48439,10 +48457,11 @@
         <v>12</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H25"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -48450,6 +48469,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -48473,415 +48493,415 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
     </row>
   </sheetData>
@@ -48928,23 +48948,23 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48952,7 +48972,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48960,7 +48980,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48968,7 +48988,7 @@
         <v>57</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48976,7 +48996,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48984,7 +49004,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48992,7 +49012,7 @@
         <v>70</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49000,7 +49020,7 @@
         <v>82</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49008,7 +49028,7 @@
         <v>90</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49016,7 +49036,7 @@
         <v>99</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49024,7 +49044,7 @@
         <v>102</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49032,7 +49052,7 @@
         <v>108</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49040,7 +49060,7 @@
         <v>118</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49048,7 +49068,7 @@
         <v>125</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49056,7 +49076,7 @@
         <v>133</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49064,7 +49084,7 @@
         <v>140</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49072,7 +49092,7 @@
         <v>153</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49080,7 +49100,7 @@
         <v>163</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49088,7 +49108,7 @@
         <v>172</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49096,7 +49116,7 @@
         <v>179</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49104,7 +49124,7 @@
         <v>188</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49112,7 +49132,7 @@
         <v>196</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49120,7 +49140,7 @@
         <v>203</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49128,7 +49148,7 @@
         <v>211</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49136,7 +49156,7 @@
         <v>218</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49144,7 +49164,7 @@
         <v>226</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49152,7 +49172,7 @@
         <v>232</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49160,7 +49180,7 @@
         <v>239</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49168,7 +49188,7 @@
         <v>247</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49176,7 +49196,7 @@
         <v>256</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49184,7 +49204,7 @@
         <v>265</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49192,7 +49212,7 @@
         <v>273</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49200,7 +49220,7 @@
         <v>279</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49208,7 +49228,7 @@
         <v>287</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49216,7 +49236,7 @@
         <v>295</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49224,7 +49244,7 @@
         <v>301</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49232,7 +49252,7 @@
         <v>310</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49240,7 +49260,7 @@
         <v>319</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49248,7 +49268,7 @@
         <v>326</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49256,7 +49276,7 @@
         <v>335</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49264,7 +49284,7 @@
         <v>343</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49272,7 +49292,7 @@
         <v>351</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49280,7 +49300,7 @@
         <v>359</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49288,7 +49308,7 @@
         <v>367</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49296,7 +49316,7 @@
         <v>387</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49304,7 +49324,7 @@
         <v>411</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49312,7 +49332,7 @@
         <v>417</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49320,7 +49340,7 @@
         <v>422</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49328,7 +49348,7 @@
         <v>428</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49336,7 +49356,7 @@
         <v>435</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49344,7 +49364,7 @@
         <v>441</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49352,7 +49372,7 @@
         <v>447</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49360,7 +49380,7 @@
         <v>454</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49368,7 +49388,7 @@
         <v>461</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49376,7 +49396,7 @@
         <v>468</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49384,7 +49404,7 @@
         <v>474</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49392,7 +49412,7 @@
         <v>480</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49400,7 +49420,7 @@
         <v>487</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49408,7 +49428,7 @@
         <v>493</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49416,7 +49436,7 @@
         <v>499</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49424,7 +49444,7 @@
         <v>504</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49432,7 +49452,7 @@
         <v>510</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49440,7 +49460,7 @@
         <v>516</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49448,7 +49468,7 @@
         <v>521</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49456,7 +49476,7 @@
         <v>527</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49464,7 +49484,7 @@
         <v>533</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49472,7 +49492,7 @@
         <v>539</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49480,7 +49500,7 @@
         <v>544</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49488,7 +49508,7 @@
         <v>550</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49496,7 +49516,7 @@
         <v>556</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49504,7 +49524,7 @@
         <v>560</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49512,7 +49532,7 @@
         <v>564</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49520,7 +49540,7 @@
         <v>569</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49528,7 +49548,7 @@
         <v>574</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49536,7 +49556,7 @@
         <v>585</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49544,7 +49564,7 @@
         <v>594</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49552,7 +49572,7 @@
         <v>600</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49560,7 +49580,7 @@
         <v>605</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49568,7 +49588,7 @@
         <v>614</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49576,7 +49596,7 @@
         <v>620</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49584,7 +49604,7 @@
         <v>627</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49592,7 +49612,7 @@
         <v>633</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49600,7 +49620,7 @@
         <v>639</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49608,7 +49628,7 @@
         <v>643</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49616,7 +49636,7 @@
         <v>647</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49624,7 +49644,7 @@
         <v>651</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49632,7 +49652,7 @@
         <v>655</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49640,7 +49660,7 @@
         <v>659</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49648,7 +49668,7 @@
         <v>663</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49776,7 +49796,7 @@
         <v>734</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49784,7 +49804,7 @@
         <v>740</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49792,7 +49812,7 @@
         <v>745</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49800,7 +49820,7 @@
         <v>751</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49808,7 +49828,7 @@
         <v>757</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49816,7 +49836,7 @@
         <v>765</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49824,7 +49844,7 @@
         <v>768</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49832,7 +49852,7 @@
         <v>771</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49840,7 +49860,7 @@
         <v>774</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49848,7 +49868,7 @@
         <v>777</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49856,7 +49876,7 @@
         <v>778</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
     </row>
   </sheetData>
